--- a/data/trans_orig/P78D$hipoteca_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78D$hipoteca_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45648815-C79C-4DE4-AD3B-B79D01976F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F171EA3-A1A6-43FD-B679-03849A43DC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C626EFFF-4F87-4FD6-B903-D2A78A84E203}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CD692547-94AD-4E6E-91F5-8586A4840C26}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="264">
-  <si>
-    <t>Población que ha tenido algún retraso en pagos en los últimos 12 meses en 2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="269">
+  <si>
+    <t>Población que ha tenido algún retraso en pagos en los últimos 12 meses (multirrespuesta) en 2023</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,766 +65,781 @@
     <t>Hipoteca</t>
   </si>
   <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>Alquiler</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>Cuotas de compras aplazadas</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>Seguros</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>Impuestos</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>Recibos de agua, luz, ...</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>Autónomos</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>Colegios</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>Actividades extraescolares</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>Ninguno</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>0,08%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>Alquiler</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>Cuotas de compras aplazadas</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>Seguros</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>Impuestos</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>Recibos de agua, luz, ...</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>Autónomos</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>Colegios</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>Actividades extraescolares</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>Otros</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>Ninguno</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1239,7 +1254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617CA08F-5B3F-4D62-897C-49AD8BD53D77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C441C034-5267-47EA-9459-A838F3C3FD13}">
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1411,312 +1426,312 @@
         <v>34</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1725,31 +1740,31 @@
         <v>18</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1758,286 +1773,286 @@
         <v>28</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="I21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>166</v>
@@ -2060,16 +2075,16 @@
         <v>170</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>173</v>
@@ -2078,7 +2093,7 @@
         <v>174</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>175</v>
@@ -2093,28 +2108,28 @@
         <v>176</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -2123,7 +2138,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>181</v>
+        <v>9</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>10</v>
@@ -2132,196 +2147,196 @@
         <v>182</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="I28" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="J28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="G30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H30" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>184</v>
-      </c>
       <c r="K30" s="7" t="s">
-        <v>129</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>202</v>
+        <v>119</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>181</v>
+        <v>9</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>10</v>
@@ -2333,85 +2348,85 @@
         <v>10</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>19</v>
+        <v>208</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2422,31 +2437,31 @@
         <v>8</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>20</v>
+        <v>226</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>220</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2455,31 +2470,31 @@
         <v>18</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>221</v>
+        <v>35</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>222</v>
+        <v>25</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2488,300 +2503,300 @@
         <v>28</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>227</v>
+        <v>33</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>145</v>
+        <v>236</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>143</v>
+        <v>227</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>202</v>
+        <v>41</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>229</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>111</v>
+        <v>240</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>236</v>
+        <v>139</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>137</v>
+        <v>247</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>9</v>
+        <v>188</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>243</v>
+        <v>119</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J44" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="K44" s="7" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>244</v>
+        <v>150</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
